--- a/output/3_Regression/h08/h08coef_rf.xlsx
+++ b/output/3_Regression/h08/h08coef_rf.xlsx
@@ -22,64 +22,64 @@
     <t>Importance Score</t>
   </si>
   <si>
+    <t>CPI Food and Energy</t>
+  </si>
+  <si>
+    <t>CPI Food and Beverages</t>
+  </si>
+  <si>
     <t>CPI Imported</t>
   </si>
   <si>
-    <t>CPI Food and Energy</t>
+    <t>CPI Non-Core</t>
+  </si>
+  <si>
+    <t>CPI Non-Tradable</t>
   </si>
   <si>
     <t>Wholesale Price Index</t>
   </si>
   <si>
-    <t>CPI Non-Core</t>
-  </si>
-  <si>
-    <t>CPI Non-Tradable</t>
-  </si>
-  <si>
-    <t>CPI Food and Beverages</t>
-  </si>
-  <si>
     <t>CPI Tradable</t>
   </si>
   <si>
+    <t>CPI Excluding Food and Energy</t>
+  </si>
+  <si>
+    <t>CPI Core Excluding Food and Beverages</t>
+  </si>
+  <si>
+    <t>CPI Core</t>
+  </si>
+  <si>
+    <t>Reserve Requirement Rate</t>
+  </si>
+  <si>
     <t>Circulating Currency Seasonally Adjusted (mill S/)</t>
   </si>
   <si>
-    <t>CPI Core Excluding Food and Beverages</t>
-  </si>
-  <si>
-    <t>CPI Excluding Food and Energy</t>
-  </si>
-  <si>
     <t>CPI Excluding Food and Beverages</t>
   </si>
   <si>
+    <t>Soybean oil (US$ per ton)</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)</t>
+  </si>
+  <si>
     <t>Wheat (US$ per ton)</t>
   </si>
   <si>
-    <t>Corn  (US$ per ton)</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)</t>
-  </si>
-  <si>
     <t>Crude oil (US$ per barrel)</t>
   </si>
   <si>
+    <t>Monetary Policy Rate</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)</t>
+  </si>
+  <si>
     <t>Net International Reserves (mill $)</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)</t>
-  </si>
-  <si>
-    <t>Reserve Requirement Rate</t>
-  </si>
-  <si>
-    <t>CPI Core</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate</t>
   </si>
 </sst>
 </file>
@@ -453,35 +453,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.3320910233795174</v>
+        <v>0.231638662887078</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.1821374785607057</v>
+        <v>0.2007006824752821</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.1795676282307825</v>
+        <v>0.169240049005981</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -492,7 +492,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.1315595154634199</v>
+        <v>0.1232802912928388</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -503,18 +503,18 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.08787308104951271</v>
+        <v>0.07214143858152239</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.04979003356139758</v>
+        <v>0.06965566634031489</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -525,18 +525,18 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.02447364891712525</v>
+        <v>0.06476761649572407</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.003428039566263288</v>
+        <v>0.03759297090111326</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -547,51 +547,51 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.001774185214150808</v>
+        <v>0.007031604830224096</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.001595362933222342</v>
+        <v>0.005677657909361975</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.00137600282934582</v>
+        <v>0.003375221099867841</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.00126842400896518</v>
+        <v>0.002673965433268724</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.0008842401632629971</v>
+        <v>0.00260349041055382</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -602,73 +602,73 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.0005172982658054738</v>
+        <v>0.002401161246334793</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.0005043746905493723</v>
+        <v>0.001953261148110128</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.0004690691901647244</v>
+        <v>0.001888939602807372</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.0002879565435739169</v>
+        <v>0.001504411841997</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.0002303995872801914</v>
+        <v>0.0009854434341971293</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.0001612970170462922</v>
+        <v>0.0004859952993934125</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21">
-        <v>1.094082790842869E-05</v>
+        <v>0.000401469764029211</v>
       </c>
     </row>
   </sheetData>
